--- a/organismo/Municipalidad de Vicuña.xlsx
+++ b/organismo/Municipalidad de Vicuña.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -419,15 +419,25 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>tipo_pago</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>num_cuotas</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Nombres2</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>NOMBRECOMPLETO</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>NOMBRECOMPLETO2</t>
         </is>
@@ -478,17 +488,19 @@
       <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
         <is>
           <t>NICOLAS</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>Nicolás Puebla Gallardo</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NICOLAS PUEBLA GALLARDO</t>
         </is>
@@ -539,17 +551,19 @@
       <c r="J3" t="n">
         <v>0</v>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
         <is>
           <t>CESAR</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>César Puebla Ruíz</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>CESAR PUEBLA RUIZ</t>
         </is>

--- a/organismo/Municipalidad de Vicuña.xlsx
+++ b/organismo/Municipalidad de Vicuña.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -417,31 +417,6 @@
           <t>remuliquida_mensual</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>tipo_pago</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>num_cuotas</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Nombres2</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>NOMBRECOMPLETO</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>NOMBRECOMPLETO2</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -459,7 +434,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Nicolás</t>
+          <t>César</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -469,42 +444,25 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Gallardo</t>
+          <t>Ruíz</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>RELATOR</t>
+          <t>Analista</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Psicólogo</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>900000</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>NICOLAS</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Nicolás Puebla Gallardo</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>NICOLAS PUEBLA GALLARDO</t>
-        </is>
-      </c>
+          <t>Sociólogo</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>700000,0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -522,7 +480,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>César</t>
+          <t>Nicolás</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -532,42 +490,25 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ruíz</t>
+          <t>Gallardo</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Analista</t>
+          <t>RELATOR</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Sociólogo</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>700000</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>CESAR</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>César Puebla Ruíz</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>CESAR PUEBLA RUIZ</t>
-        </is>
-      </c>
+          <t>Psicólogo</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>900000,0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
